--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>1284.923309954396</v>
+        <v>1306.449416874734</v>
       </c>
       <c r="R2">
-        <v>1284.923309954396</v>
+        <v>5225.797667498936</v>
       </c>
       <c r="S2">
-        <v>0.007243058205803962</v>
+        <v>0.006564866750439823</v>
       </c>
       <c r="T2">
-        <v>0.007243058205803962</v>
+        <v>0.003312367334143861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>1785.040027277464</v>
+        <v>1926.123921671809</v>
       </c>
       <c r="R3">
-        <v>1785.040027277464</v>
+        <v>11556.74353003085</v>
       </c>
       <c r="S3">
-        <v>0.01006219493186675</v>
+        <v>0.009678711419886857</v>
       </c>
       <c r="T3">
-        <v>0.01006219493186675</v>
+        <v>0.007325231896372574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>868.5698973876872</v>
+        <v>910.8190957402877</v>
       </c>
       <c r="R4">
-        <v>868.5698973876872</v>
+        <v>5464.914574441726</v>
       </c>
       <c r="S4">
-        <v>0.004896091676328509</v>
+        <v>0.004576836975131356</v>
       </c>
       <c r="T4">
-        <v>0.004896091676328509</v>
+        <v>0.003463931378906789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>665.4181249934666</v>
+        <v>670.3008004685043</v>
       </c>
       <c r="R5">
-        <v>665.4181249934666</v>
+        <v>4021.804802811026</v>
       </c>
       <c r="S5">
-        <v>0.00375093375082103</v>
+        <v>0.003368240194339501</v>
       </c>
       <c r="T5">
-        <v>0.00375093375082103</v>
+        <v>0.00254921749764374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>674.8663648784518</v>
+        <v>706.0151737754064</v>
       </c>
       <c r="R6">
-        <v>674.8663648784518</v>
+        <v>4236.091042652439</v>
       </c>
       <c r="S6">
-        <v>0.003804193078361578</v>
+        <v>0.003547703783826302</v>
       </c>
       <c r="T6">
-        <v>0.003804193078361578</v>
+        <v>0.002685042645529138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>302.7179945036389</v>
+        <v>306.2025287232295</v>
       </c>
       <c r="R7">
-        <v>302.7179945036389</v>
+        <v>1224.810114892918</v>
       </c>
       <c r="S7">
-        <v>0.001706408497026892</v>
+        <v>0.001538657963906815</v>
       </c>
       <c r="T7">
-        <v>0.001706408497026892</v>
+        <v>0.0007763448325472538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>35834.72184999732</v>
+        <v>39402.72944195948</v>
       </c>
       <c r="R8">
-        <v>35834.72184999732</v>
+        <v>236416.3766517568</v>
       </c>
       <c r="S8">
-        <v>0.2019988073510299</v>
+        <v>0.1979974617072361</v>
       </c>
       <c r="T8">
-        <v>0.2019988073510299</v>
+        <v>0.1498523159724094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>49782.28068013634</v>
+        <v>58092.21449910693</v>
       </c>
       <c r="R9">
-        <v>49782.28068013634</v>
+        <v>522829.9304919624</v>
       </c>
       <c r="S9">
-        <v>0.2806206049734557</v>
+        <v>0.2919115294466635</v>
       </c>
       <c r="T9">
-        <v>0.2806206049734557</v>
+        <v>0.3313952994860442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>24223.2049485297</v>
+        <v>27470.45383959619</v>
       </c>
       <c r="R10">
-        <v>24223.2049485297</v>
+        <v>247234.0845563657</v>
       </c>
       <c r="S10">
-        <v>0.1365451790111476</v>
+        <v>0.138038156473339</v>
       </c>
       <c r="T10">
-        <v>0.1365451790111476</v>
+        <v>0.1567091107764619</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>18557.5849067085</v>
+        <v>20216.38246719946</v>
       </c>
       <c r="R11">
-        <v>18557.5849067085</v>
+        <v>181947.4422047952</v>
       </c>
       <c r="S11">
-        <v>0.1046083191091065</v>
+        <v>0.1015866786412426</v>
       </c>
       <c r="T11">
-        <v>0.1046083191091065</v>
+        <v>0.1153272289584515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>18821.0831603611</v>
+        <v>21293.53384437822</v>
       </c>
       <c r="R12">
-        <v>18821.0831603611</v>
+        <v>191641.804599404</v>
       </c>
       <c r="S12">
-        <v>0.106093647590229</v>
+        <v>0.1069993300381464</v>
       </c>
       <c r="T12">
-        <v>0.106093647590229</v>
+        <v>0.1214719921820577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>8442.383329797265</v>
+        <v>9235.118664285861</v>
       </c>
       <c r="R13">
-        <v>8442.383329797265</v>
+        <v>55410.71198571516</v>
       </c>
       <c r="S13">
-        <v>0.04758935679639974</v>
+        <v>0.04640617743974208</v>
       </c>
       <c r="T13">
-        <v>0.04758935679639974</v>
+        <v>0.03512203189278452</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>23.35372265833026</v>
+        <v>48.04913755015001</v>
       </c>
       <c r="R14">
-        <v>23.35372265833026</v>
+        <v>288.2948253009001</v>
       </c>
       <c r="S14">
-        <v>0.0001316439442152329</v>
+        <v>0.0002414453873345287</v>
       </c>
       <c r="T14">
-        <v>0.0001316439442152329</v>
+        <v>0.0001827354258027455</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>32.44343799205864</v>
+        <v>70.83978304528334</v>
       </c>
       <c r="R15">
-        <v>32.44343799205864</v>
+        <v>637.5580474075501</v>
       </c>
       <c r="S15">
-        <v>0.0001828822840650409</v>
+        <v>0.0003559676557817637</v>
       </c>
       <c r="T15">
-        <v>0.0001828822840650409</v>
+        <v>0.000404115617217157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>15.78642113176883</v>
+        <v>33.49848180055834</v>
       </c>
       <c r="R16">
-        <v>15.78642113176883</v>
+        <v>301.4863362050251</v>
       </c>
       <c r="S16">
-        <v>8.89873864322638E-05</v>
+        <v>0.000168328805173928</v>
       </c>
       <c r="T16">
-        <v>8.89873864322638E-05</v>
+        <v>0.0001910968535860256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>12.09409948635386</v>
+        <v>24.65260035764167</v>
       </c>
       <c r="R17">
-        <v>12.09409948635386</v>
+        <v>221.873403218775</v>
       </c>
       <c r="S17">
-        <v>6.817392590500505E-05</v>
+        <v>0.0001238785323865933</v>
       </c>
       <c r="T17">
-        <v>6.817392590500505E-05</v>
+        <v>0.0001406342648334747</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>12.26582302204966</v>
+        <v>25.96611836559168</v>
       </c>
       <c r="R18">
-        <v>12.26582302204966</v>
+        <v>233.6950652903251</v>
       </c>
       <c r="S18">
-        <v>6.914192419308597E-05</v>
+        <v>0.0001304789185822739</v>
       </c>
       <c r="T18">
-        <v>6.914192419308597E-05</v>
+        <v>0.0001481274151183824</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>5.501956445614516</v>
+        <v>11.2616433753875</v>
       </c>
       <c r="R19">
-        <v>5.501956445614516</v>
+        <v>67.56986025232501</v>
       </c>
       <c r="S19">
-        <v>3.101429515104571E-05</v>
+        <v>5.658939963190402E-05</v>
       </c>
       <c r="T19">
-        <v>3.101429515104571E-05</v>
+        <v>4.282909751069358E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>59.15545032676164</v>
+        <v>62.658980170886</v>
       </c>
       <c r="R20">
-        <v>59.15545032676164</v>
+        <v>375.953881025316</v>
       </c>
       <c r="S20">
-        <v>0.0003334567647640283</v>
+        <v>0.0003148593816393879</v>
       </c>
       <c r="T20">
-        <v>0.0003334567647640283</v>
+        <v>0.0002382980424974744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>82.17988252438273</v>
+        <v>92.37935970258467</v>
       </c>
       <c r="R21">
-        <v>82.17988252438273</v>
+        <v>831.414237323262</v>
       </c>
       <c r="S21">
-        <v>0.0004632445126171475</v>
+        <v>0.0004642033431261177</v>
       </c>
       <c r="T21">
-        <v>0.0004632445126171475</v>
+        <v>0.0005269911956177482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>39.98732299600151</v>
+        <v>43.68404541507567</v>
       </c>
       <c r="R22">
-        <v>39.98732299600151</v>
+        <v>393.1564087356809</v>
       </c>
       <c r="S22">
-        <v>0.0002254068439030822</v>
+        <v>0.0002195109382467815</v>
       </c>
       <c r="T22">
-        <v>0.0002254068439030822</v>
+        <v>0.0002492018498160973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>30.63459782745707</v>
+        <v>32.14848123669233</v>
       </c>
       <c r="R23">
-        <v>30.63459782745707</v>
+        <v>289.336331130231</v>
       </c>
       <c r="S23">
-        <v>0.00017268592876842</v>
+        <v>0.0001615450952955924</v>
       </c>
       <c r="T23">
-        <v>0.00017268592876842</v>
+        <v>0.0001833955833723453</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>31.06957700548397</v>
+        <v>33.86138812765034</v>
       </c>
       <c r="R24">
-        <v>31.06957700548397</v>
+        <v>304.752493148853</v>
       </c>
       <c r="S24">
-        <v>0.000175137887947893</v>
+        <v>0.000170152397920404</v>
       </c>
       <c r="T24">
-        <v>0.000175137887947893</v>
+        <v>0.0001931671043414669</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>13.93656660140478</v>
+        <v>14.6858637829555</v>
       </c>
       <c r="R25">
-        <v>13.93656660140478</v>
+        <v>88.11518269773299</v>
       </c>
       <c r="S25">
-        <v>7.855983489522109E-05</v>
+        <v>7.379599822612733E-05</v>
       </c>
       <c r="T25">
-        <v>7.855983489522109E-05</v>
+        <v>5.585173238247049E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>1006.0168639149</v>
+        <v>1149.553388825175</v>
       </c>
       <c r="R26">
-        <v>1006.0168639149</v>
+        <v>6897.320332951048</v>
       </c>
       <c r="S26">
-        <v>0.005670874397643702</v>
+        <v>0.005776469201698459</v>
       </c>
       <c r="T26">
-        <v>0.005670874397643702</v>
+        <v>0.004371860530705853</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>1397.577860322246</v>
+        <v>1694.809039566026</v>
       </c>
       <c r="R27">
-        <v>1397.577860322246</v>
+        <v>15253.28135609424</v>
       </c>
       <c r="S27">
-        <v>0.007878087128652263</v>
+        <v>0.008516361497414688</v>
       </c>
       <c r="T27">
-        <v>0.007878087128652263</v>
+        <v>0.009668279201979341</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>680.037444640848</v>
+        <v>801.4356810075576</v>
       </c>
       <c r="R28">
-        <v>680.037444640848</v>
+        <v>7212.921129068017</v>
       </c>
       <c r="S28">
-        <v>0.003833342235681497</v>
+        <v>0.004027188796523517</v>
       </c>
       <c r="T28">
-        <v>0.003833342235681497</v>
+        <v>0.004571903822505929</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>520.9819528620889</v>
+        <v>589.802059504213</v>
       </c>
       <c r="R29">
-        <v>520.9819528620889</v>
+        <v>5308.218535537917</v>
       </c>
       <c r="S29">
-        <v>0.002936753173920905</v>
+        <v>0.002963736582348977</v>
       </c>
       <c r="T29">
-        <v>0.002936753173920905</v>
+        <v>0.003364609730102288</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>528.3793505005096</v>
+        <v>621.2273702238039</v>
       </c>
       <c r="R30">
-        <v>528.3793505005096</v>
+        <v>5591.046332014234</v>
       </c>
       <c r="S30">
-        <v>0.002978451990691892</v>
+        <v>0.003121647768806388</v>
       </c>
       <c r="T30">
-        <v>0.002978451990691892</v>
+        <v>0.003543879884410502</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N31">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O31">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P31">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q31">
-        <v>237.0097928194386</v>
+        <v>269.4296082298123</v>
       </c>
       <c r="R31">
-        <v>237.0097928194386</v>
+        <v>1616.577649378874</v>
       </c>
       <c r="S31">
-        <v>0.001336014150757107</v>
+        <v>0.001353875208489237</v>
       </c>
       <c r="T31">
-        <v>0.001336014150757107</v>
+        <v>0.001024666345620764</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H32">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I32">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J32">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N32">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O32">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P32">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q32">
-        <v>2631.170409141254</v>
+        <v>2657.328355830698</v>
       </c>
       <c r="R32">
-        <v>2631.170409141254</v>
+        <v>10629.31342332279</v>
       </c>
       <c r="S32">
-        <v>0.01483179601082614</v>
+        <v>0.01335299043565385</v>
       </c>
       <c r="T32">
-        <v>0.01483179601082614</v>
+        <v>0.006737381124945446</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H33">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I33">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J33">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N33">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P33">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q33">
-        <v>3655.272234941288</v>
+        <v>3917.75115652494</v>
       </c>
       <c r="R33">
-        <v>3655.272234941288</v>
+        <v>23506.50693914964</v>
       </c>
       <c r="S33">
-        <v>0.02060461457164984</v>
+        <v>0.01968657490428793</v>
       </c>
       <c r="T33">
-        <v>0.02060461457164984</v>
+        <v>0.01489957910336204</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H34">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I34">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J34">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N34">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O34">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P34">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q34">
-        <v>1778.592850306723</v>
+        <v>1852.613181100154</v>
       </c>
       <c r="R34">
-        <v>1778.592850306723</v>
+        <v>11115.67908660092</v>
       </c>
       <c r="S34">
-        <v>0.01002585246870149</v>
+        <v>0.009309322287521134</v>
       </c>
       <c r="T34">
-        <v>0.01002585246870149</v>
+        <v>0.007045663580179255</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H35">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I35">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J35">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N35">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O35">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P35">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q35">
-        <v>1362.593756861027</v>
+        <v>1363.39708297467</v>
       </c>
       <c r="R35">
-        <v>1362.593756861027</v>
+        <v>8180.382497848022</v>
       </c>
       <c r="S35">
-        <v>0.007680883221084837</v>
+        <v>0.00685102696059855</v>
       </c>
       <c r="T35">
-        <v>0.007680883221084837</v>
+        <v>0.005185128374792644</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H36">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I36">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J36">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N36">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O36">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P36">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q36">
-        <v>1381.941159940455</v>
+        <v>1436.040398263664</v>
       </c>
       <c r="R36">
-        <v>1381.941159940455</v>
+        <v>8616.242389581987</v>
       </c>
       <c r="S36">
-        <v>0.007789943711738109</v>
+        <v>0.00721605730851914</v>
       </c>
       <c r="T36">
-        <v>0.007789943711738109</v>
+        <v>0.005461397790392507</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H37">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I37">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J37">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N37">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O37">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P37">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q37">
-        <v>619.8833994853971</v>
+        <v>622.8183438971365</v>
       </c>
       <c r="R37">
-        <v>619.8833994853971</v>
+        <v>2491.273375588546</v>
       </c>
       <c r="S37">
-        <v>0.00349425643421763</v>
+        <v>0.003129642360892373</v>
       </c>
       <c r="T37">
-        <v>0.00349425643421763</v>
+        <v>0.001579091475554816</v>
       </c>
     </row>
   </sheetData>
